--- a/medicine/Psychotrope/Macération_pelliculaire/Macération_pelliculaire.xlsx
+++ b/medicine/Psychotrope/Macération_pelliculaire/Macération_pelliculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mac%C3%A9ration_pelliculaire</t>
+          <t>Macération_pelliculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La macération pelliculaire est une opération de la vinification destinée à favoriser l'extraction des arômes et précurseurs d'arômes du raisin. Elle intervient dans l'élaboration du vin blanc et du vin rosé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mac%C3%A9ration_pelliculaire</t>
+          <t>Macération_pelliculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de l'élaboration du vin, blanc ou rosé, le contact entre la pellicule du raisin et le moût est réduit dans le temps. Or, c'est dans la pellicule que se trouvent l'essentiel des précurseurs d'arôme du vin. La macération pelliculaire permet un prolongement du contact entre pellicule et moût[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de l'élaboration du vin, blanc ou rosé, le contact entre la pellicule du raisin et le moût est réduit dans le temps. Or, c'est dans la pellicule que se trouvent l'essentiel des précurseurs d'arôme du vin. La macération pelliculaire permet un prolongement du contact entre pellicule et moût.
 Le but de la macération pelliculaire est d'augmenter le potentiel aromatique du futur vin.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mac%C3%A9ration_pelliculaire</t>
+          <t>Macération_pelliculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Mode opératoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>À son arrivée au chai, le raisin foulé et éraflé est placé dans une cuve pendant quelques heures (entre quatre et vingt-quatre). Chaque opération est un choix pour le vinificateur qui pèse le pour et le contre :
 Le foulage libère le jus des grains de raisin et permet aux pellicules de baigner dans le moût.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mac%C3%A9ration_pelliculaire</t>
+          <t>Macération_pelliculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Inconvénients</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La macération pelliculaire augmente l'extraction des arômes, qu'ils soient bon ou mauvais. Elle nécessite une excellente maturité du raisin et une vendange saine et propre. La présence de rafles ou de feuilles rend les effets de l'opération négatifs.
-Sur une vendange partiellement botrytisée, l'opération est à éviter. En effet, la pourriture grise synthétise des enzymes qui dénaturent les arômes du vin[2]. Dans ce cas, le pressurage rapide évite une trop grande extraction de ces enzymes.
+Sur une vendange partiellement botrytisée, l'opération est à éviter. En effet, la pourriture grise synthétise des enzymes qui dénaturent les arômes du vin. Dans ce cas, le pressurage rapide évite une trop grande extraction de ces enzymes.
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mac%C3%A9ration_pelliculaire</t>
+          <t>Macération_pelliculaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Vinification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est possible de poursuivre la macération pelliculaire par une fermentation classique sur phase liquide, ou en contact avec les pellicules, en phase solide. Dans ce dernier cas, le vin peut prendre le nom de vin orange.
 </t>
